--- a/bin/testdata/furnitureData.xlsx
+++ b/bin/testdata/furnitureData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>MenuFromHome</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>5904916</t>
+  </si>
+  <si>
+    <t>70032787</t>
   </si>
 </sst>
 </file>
@@ -461,7 +464,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/bin/testdata/furnitureData.xlsx
+++ b/bin/testdata/furnitureData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>MenuFromHome</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>70032787</t>
+  </si>
+  <si>
+    <t>29540246</t>
+  </si>
+  <si>
+    <t>69731455</t>
   </si>
 </sst>
 </file>
@@ -464,7 +470,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/bin/testdata/furnitureData.xlsx
+++ b/bin/testdata/furnitureData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>MenuFromHome</t>
   </si>
@@ -90,6 +90,66 @@
   </si>
   <si>
     <t>69731455</t>
+  </si>
+  <si>
+    <t>12611378</t>
+  </si>
+  <si>
+    <t>79148082</t>
+  </si>
+  <si>
+    <t>19871382</t>
+  </si>
+  <si>
+    <t>62572875</t>
+  </si>
+  <si>
+    <t>13311559</t>
+  </si>
+  <si>
+    <t>17193863</t>
+  </si>
+  <si>
+    <t>59269581</t>
+  </si>
+  <si>
+    <t>97355510</t>
+  </si>
+  <si>
+    <t>93569888</t>
+  </si>
+  <si>
+    <t>79975003</t>
+  </si>
+  <si>
+    <t>6823877</t>
+  </si>
+  <si>
+    <t>6870703</t>
+  </si>
+  <si>
+    <t>32648407</t>
+  </si>
+  <si>
+    <t>89934037</t>
+  </si>
+  <si>
+    <t>84808669</t>
+  </si>
+  <si>
+    <t>50848448</t>
+  </si>
+  <si>
+    <t>11747387</t>
+  </si>
+  <si>
+    <t>61159715</t>
+  </si>
+  <si>
+    <t>99457574</t>
+  </si>
+  <si>
+    <t>39775278</t>
   </si>
 </sst>
 </file>
@@ -470,7 +530,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/bin/testdata/furnitureData.xlsx
+++ b/bin/testdata/furnitureData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>MenuFromHome</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>39775278</t>
+  </si>
+  <si>
+    <t>53537554</t>
   </si>
 </sst>
 </file>
@@ -530,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/bin/testdata/furnitureData.xlsx
+++ b/bin/testdata/furnitureData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>MenuFromHome</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>53537554</t>
+  </si>
+  <si>
+    <t>35631052</t>
   </si>
 </sst>
 </file>
@@ -533,7 +536,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/bin/testdata/furnitureData.xlsx
+++ b/bin/testdata/furnitureData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>MenuFromHome</t>
   </si>
@@ -156,6 +156,15 @@
   </si>
   <si>
     <t>35631052</t>
+  </si>
+  <si>
+    <t>32113611</t>
+  </si>
+  <si>
+    <t>64066039</t>
+  </si>
+  <si>
+    <t>79584585</t>
   </si>
 </sst>
 </file>
@@ -536,7 +545,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/bin/testdata/furnitureData.xlsx
+++ b/bin/testdata/furnitureData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>MenuFromHome</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>79584585</t>
+  </si>
+  <si>
+    <t>70982197</t>
   </si>
 </sst>
 </file>
@@ -545,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/bin/testdata/furnitureData.xlsx
+++ b/bin/testdata/furnitureData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>MenuFromHome</t>
   </si>
@@ -168,6 +168,21 @@
   </si>
   <si>
     <t>70982197</t>
+  </si>
+  <si>
+    <t>48338495</t>
+  </si>
+  <si>
+    <t>97689688</t>
+  </si>
+  <si>
+    <t>40670685</t>
+  </si>
+  <si>
+    <t>80834542</t>
+  </si>
+  <si>
+    <t>41655678</t>
   </si>
 </sst>
 </file>
@@ -548,7 +563,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/bin/testdata/furnitureData.xlsx
+++ b/bin/testdata/furnitureData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>MenuFromHome</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>41655678</t>
+  </si>
+  <si>
+    <t>4191853</t>
   </si>
 </sst>
 </file>
@@ -563,7 +566,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/bin/testdata/furnitureData.xlsx
+++ b/bin/testdata/furnitureData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>MenuFromHome</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>41655678</t>
+  </si>
+  <si>
+    <t>73343227</t>
+  </si>
+  <si>
+    <t>30677524</t>
   </si>
 </sst>
 </file>
@@ -563,7 +569,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/bin/testdata/furnitureData.xlsx
+++ b/bin/testdata/furnitureData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>MenuFromHome</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>30677524</t>
+  </si>
+  <si>
+    <t>78775031</t>
   </si>
 </sst>
 </file>
@@ -569,7 +572,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
